--- a/Resources/fonts/plot.xlsx
+++ b/Resources/fonts/plot.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" r:id="rId1"/>
-    <sheet name="people" sheetId="2" r:id="rId2"/>
+    <sheet name="npc" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5864" uniqueCount="5788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5865" uniqueCount="5789">
   <si>
     <t>ID</t>
   </si>
@@ -17498,6 +17498,10 @@
   </si>
   <si>
     <t>我们的班主任</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"npc":1,"favor":10}]</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -18503,8 +18507,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I5830"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18553,6 +18557,9 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>5757</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5788</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -88572,8 +88579,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
